--- a/biology/Zoologie/Bryaninops_yongei/Bryaninops_yongei.xlsx
+++ b/biology/Zoologie/Bryaninops_yongei/Bryaninops_yongei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobie nain des Antipathaires
 Bryaninops yongei, communément nommé Gobie nain des antipathaires[réf. nécessaire], est une espèce de poissons marins benthiques de la famille des Gobiidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bryaninops yongei a été initialement décrite en 1969 par les ichtyologistes William P. Davis (d) et Daniel Morris Cohen (d) (1930-2017) sous le protonyme de Cottogobius yongei[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bryaninops yongei a été initialement décrite en 1969 par les ichtyologistes William P. Davis (d) et Daniel Morris Cohen (d) (1930-2017) sous le protonyme de Cottogobius yongei,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryaninops yongei peut mesurer jusqu'à 3,5 cm de long[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryaninops yongei peut mesurer jusqu'à 3,5 cm de long.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryaninops yongei fréquente les eaux tropicales et subtropicales de l'Océan Indien, mer Rouge incluse, aux îles océaniques du centre de l'Océan Pacifique[5]. 
-Il vit souvent en couple et plus particulièrement en association avec le corail fouet (Cirrhipathes anguina) de la famille des Antipatharia, couramment vu entre 3 et 45 m de profondeur[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryaninops yongei fréquente les eaux tropicales et subtropicales de l'Océan Indien, mer Rouge incluse, aux îles océaniques du centre de l'Océan Pacifique. 
+Il vit souvent en couple et plus particulièrement en association avec le corail fouet (Cirrhipathes anguina) de la famille des Antipatharia, couramment vu entre 3 et 45 m de profondeur.
 Il a une activité diurne.
 </t>
         </is>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, yongei, lui a été donnée en l'honneur de Maurice Yonge (1899-1986) qui accompagnait les auteurs et qui a collecté le spécimen type[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, yongei, lui a été donnée en l'honneur de Maurice Yonge (1899-1986) qui accompagnait les auteurs et qui a collecté le spécimen type.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) William P. Davis et Daniel M. Cohen, « A gobiid fish and a palaemonid shrimp living on an antipatharian sea whip in the tropical Pacific », Bulletin of Marine Science, École Rosenstiel des sciences marines et atmosphériques (d), vol. 18, no 4,‎ 7 janvier 1969, p. 749-761 (ISSN 1553-6955 et 0007-4977, OCLC 297220873, lire en ligne)</t>
         </is>
